--- a/forecast_summary_B07T6N8N56.xlsx
+++ b/forecast_summary_B07T6N8N56.xlsx
@@ -417,7 +417,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J21"/>
+  <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -476,6 +476,11 @@
           <t>Product Title</t>
         </is>
       </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>is_holiday_week</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -488,7 +493,7 @@
         <v>3.618033045786153</v>
       </c>
       <c r="D2" t="n">
-        <v>9.21205361811875</v>
+        <v>8.816048647289767</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -511,6 +516,9 @@
         <is>
           <t>B365M DS3H</t>
         </is>
+      </c>
+      <c r="K2" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -524,7 +532,7 @@
         <v>0.7730433224273159</v>
       </c>
       <c r="D3" t="n">
-        <v>6.475932374591027</v>
+        <v>6.406154890826418</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -547,6 +555,9 @@
         <is>
           <t>B365M DS3H</t>
         </is>
+      </c>
+      <c r="K3" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -560,7 +571,7 @@
         <v>-7.058799174340925</v>
       </c>
       <c r="D4" t="n">
-        <v>-1.679007091983738</v>
+        <v>-1.722980436928787</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -583,6 +594,9 @@
         <is>
           <t>B365M DS3H</t>
         </is>
+      </c>
+      <c r="K4" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -596,7 +610,7 @@
         <v>-13.68541600950733</v>
       </c>
       <c r="D5" t="n">
-        <v>-8.631204357618058</v>
+        <v>-8.774494558255668</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -619,6 +633,9 @@
         <is>
           <t>B365M DS3H</t>
         </is>
+      </c>
+      <c r="K5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -632,7 +649,7 @@
         <v>-12.74591025015965</v>
       </c>
       <c r="D6" t="n">
-        <v>-7.49696275175122</v>
+        <v>-7.561970157151304</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -655,6 +672,9 @@
         <is>
           <t>B365M DS3H</t>
         </is>
+      </c>
+      <c r="K6" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -668,7 +688,7 @@
         <v>-5.420142965478551</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.1743488411636554</v>
+        <v>0.06129148598829369</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -691,6 +711,9 @@
         <is>
           <t>B365M DS3H</t>
         </is>
+      </c>
+      <c r="K7" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -704,7 +727,7 @@
         <v>-0.5453943702080667</v>
       </c>
       <c r="D8" t="n">
-        <v>4.759270208969956</v>
+        <v>4.867876380731087</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -727,6 +750,9 @@
         <is>
           <t>B365M DS3H</t>
         </is>
+      </c>
+      <c r="K8" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -740,7 +766,7 @@
         <v>-5.648883887373075</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.356980459892601</v>
+        <v>-0.4465051412865065</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
@@ -763,6 +789,9 @@
         <is>
           <t>B365M DS3H</t>
         </is>
+      </c>
+      <c r="K9" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -776,7 +805,7 @@
         <v>-18.17822138178889</v>
       </c>
       <c r="D10" t="n">
-        <v>-12.72447928236411</v>
+        <v>-12.60140937446827</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -799,6 +828,9 @@
         <is>
           <t>B365M DS3H</t>
         </is>
+      </c>
+      <c r="K10" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -812,7 +844,7 @@
         <v>-27.05465312706257</v>
       </c>
       <c r="D11" t="n">
-        <v>-21.59058460290433</v>
+        <v>-21.89721203902394</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -835,6 +867,9 @@
         <is>
           <t>B365M DS3H</t>
         </is>
+      </c>
+      <c r="K11" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -848,7 +883,7 @@
         <v>-23.62188718456827</v>
       </c>
       <c r="D12" t="n">
-        <v>-17.8168856789422</v>
+        <v>-18.37043906737625</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
@@ -871,6 +906,9 @@
         <is>
           <t>B365M DS3H</t>
         </is>
+      </c>
+      <c r="K12" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -884,7 +922,7 @@
         <v>-10.38730390790629</v>
       </c>
       <c r="D13" t="n">
-        <v>-5.282101027642472</v>
+        <v>-5.362812719873455</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -907,6 +945,9 @@
         <is>
           <t>B365M DS3H</t>
         </is>
+      </c>
+      <c r="K13" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -920,7 +961,7 @@
         <v>1.843440465117487</v>
       </c>
       <c r="D14" t="n">
-        <v>7.200678974373266</v>
+        <v>7.359041883297604</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -943,6 +984,9 @@
         <is>
           <t>B365M DS3H</t>
         </is>
+      </c>
+      <c r="K14" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -956,7 +1000,7 @@
         <v>5.01470305789984</v>
       </c>
       <c r="D15" t="n">
-        <v>10.23660467394912</v>
+        <v>10.14482266246</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
@@ -979,6 +1023,9 @@
         <is>
           <t>B365M DS3H</t>
         </is>
+      </c>
+      <c r="K15" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -992,7 +1039,7 @@
         <v>0.8890165193853209</v>
       </c>
       <c r="D16" t="n">
-        <v>6.243532882525837</v>
+        <v>6.430804802578702</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1015,6 +1062,9 @@
         <is>
           <t>B365M DS3H</t>
         </is>
+      </c>
+      <c r="K16" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1028,7 +1078,7 @@
         <v>-2.834597010244405</v>
       </c>
       <c r="D17" t="n">
-        <v>2.722229778153364</v>
+        <v>2.80284014238802</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -1051,6 +1101,9 @@
         <is>
           <t>B365M DS3H</t>
         </is>
+      </c>
+      <c r="K17" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1064,7 +1117,7 @@
         <v>-1.737405771555451</v>
       </c>
       <c r="D18" t="n">
-        <v>3.45952923515958</v>
+        <v>3.509277215970681</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
@@ -1087,6 +1140,9 @@
         <is>
           <t>B365M DS3H</t>
         </is>
+      </c>
+      <c r="K18" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -1100,7 +1156,7 @@
         <v>1.549224479565554</v>
       </c>
       <c r="D19" t="n">
-        <v>6.340194359935873</v>
+        <v>6.899616050896302</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -1123,6 +1179,9 @@
         <is>
           <t>B365M DS3H</t>
         </is>
+      </c>
+      <c r="K19" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -1136,7 +1195,7 @@
         <v>2.233270467752115</v>
       </c>
       <c r="D20" t="n">
-        <v>7.802881079421959</v>
+        <v>7.611476777470353</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -1159,6 +1218,9 @@
         <is>
           <t>B365M DS3H</t>
         </is>
+      </c>
+      <c r="K20" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -1172,7 +1234,7 @@
         <v>-0.2395590240537373</v>
       </c>
       <c r="D21" t="n">
-        <v>5.203742107926395</v>
+        <v>5.126405616805871</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
@@ -1195,6 +1257,9 @@
         <is>
           <t>B365M DS3H</t>
         </is>
+      </c>
+      <c r="K21" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
